--- a/Data/Excels/Synthetic/Resumes/Errors 1.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Errors 1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:V21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,32 +456,92 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-InRays Initial (mm)</t>
+          <t>ARAP_depth_1mm-InRays Initial (mm)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-InRays Final (mm)</t>
+          <t>ARAP_depth_1mm-InRays Final (mm)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-TwoPoints Initial (mm)</t>
+          <t>ARAP_depth_1mm-TwoPoints Initial (mm)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-TwoPoints Final (mm)</t>
+          <t>ARAP_depth_1mm-TwoPoints Final (mm)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-FarPoints Initial (mm)</t>
+          <t>ARAP_depth_1mm-FarPoints Initial (mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-FarPoints Final (mm)</t>
+          <t>ARAP_depth_1mm-FarPoints Final (mm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-InRays Initial (mm)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-InRays Final (mm)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-TwoPoints Initial (mm)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-TwoPoints Final (mm)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-FarPoints Initial (mm)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-FarPoints Final (mm)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-InRays Initial (mm)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-InRays Final (mm)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-TwoPoints Initial (mm)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-TwoPoints Final (mm)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-FarPoints Initial (mm)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-FarPoints Final (mm)</t>
         </is>
       </c>
     </row>
@@ -501,22 +561,58 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>1.07</v>
       </c>
       <c r="F2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="T2" t="n">
         <v>3.24</v>
       </c>
-      <c r="G2" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.3</v>
+      <c r="U2" t="n">
+        <v>10.49</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.68</v>
       </c>
     </row>
     <row r="3">
@@ -535,22 +631,58 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.51</v>
+        <v>1.07</v>
       </c>
       <c r="F3" t="n">
-        <v>1.34</v>
+        <v>0.82</v>
       </c>
       <c r="G3" t="n">
-        <v>1.64</v>
+        <v>1.42</v>
       </c>
       <c r="H3" t="n">
-        <v>1.42</v>
+        <v>1.02</v>
       </c>
       <c r="I3" t="n">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="J3" t="n">
-        <v>1.35</v>
+        <v>0.93</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="O3" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="U3" t="n">
+        <v>10.42</v>
+      </c>
+      <c r="V3" t="n">
+        <v>14.08</v>
       </c>
     </row>
     <row r="4">
@@ -569,22 +701,58 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>3.17</v>
+        <v>1.08</v>
       </c>
       <c r="F4" t="n">
-        <v>3.18</v>
+        <v>3.01</v>
       </c>
       <c r="G4" t="n">
-        <v>3.49</v>
+        <v>2.51</v>
       </c>
       <c r="H4" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="I4" t="n">
-        <v>3.57</v>
+        <v>3.03</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>5.18</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="P4" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.13</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U4" t="n">
+        <v>11.71</v>
+      </c>
+      <c r="V4" t="n">
+        <v>26.76</v>
       </c>
     </row>
     <row r="5">
@@ -603,22 +771,58 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>12.24</v>
+        <v>1.07</v>
       </c>
       <c r="F5" t="n">
-        <v>8.82</v>
+        <v>18.76</v>
       </c>
       <c r="G5" t="n">
-        <v>13.77</v>
+        <v>8.06</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>17.82</v>
       </c>
       <c r="I5" t="n">
-        <v>13.82</v>
+        <v>8.23</v>
       </c>
       <c r="J5" t="n">
-        <v>9.6</v>
+        <v>140.17</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L5" t="n">
+        <v>20</v>
+      </c>
+      <c r="M5" t="n">
+        <v>8.279999999999999</v>
+      </c>
+      <c r="N5" t="n">
+        <v>19.16</v>
+      </c>
+      <c r="O5" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="P5" t="n">
+        <v>36.97</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="R5" t="n">
+        <v>100.15</v>
+      </c>
+      <c r="S5" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="T5" t="n">
+        <v>15.66</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13.59</v>
+      </c>
+      <c r="V5" t="n">
+        <v>155.73</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +841,58 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>4.65</v>
+        <v>1.05</v>
       </c>
       <c r="F6" t="n">
-        <v>4.24</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>5.57</v>
+        <v>5.04</v>
       </c>
       <c r="H6" t="n">
-        <v>4.39</v>
+        <v>0.99</v>
       </c>
       <c r="I6" t="n">
-        <v>5.62</v>
+        <v>5.27</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>2.25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="O6" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S6" t="n">
+        <v>6.93</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U6" t="n">
+        <v>11.59</v>
+      </c>
+      <c r="V6" t="n">
+        <v>10.66</v>
       </c>
     </row>
     <row r="7">
@@ -671,22 +911,58 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>12.9</v>
+        <v>1.05</v>
       </c>
       <c r="F7" t="n">
-        <v>10.12</v>
+        <v>59.53</v>
       </c>
       <c r="G7" t="n">
-        <v>14.59</v>
+        <v>9.6</v>
       </c>
       <c r="H7" t="n">
-        <v>9.140000000000001</v>
+        <v>16.36</v>
       </c>
       <c r="I7" t="n">
-        <v>14.6</v>
+        <v>9.68</v>
       </c>
       <c r="J7" t="n">
-        <v>12.7</v>
+        <v>110.62</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L7" t="n">
+        <v>122.97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="N7" t="n">
+        <v>15.47</v>
+      </c>
+      <c r="O7" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="P7" t="n">
+        <v>88.69</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>98.78</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10.89</v>
+      </c>
+      <c r="T7" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="U7" t="n">
+        <v>14.56</v>
+      </c>
+      <c r="V7" t="n">
+        <v>108.85</v>
       </c>
     </row>
     <row r="8">
@@ -705,22 +981,58 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1.73</v>
+        <v>1.07</v>
       </c>
       <c r="F8" t="n">
-        <v>1.61</v>
+        <v>1.34</v>
       </c>
       <c r="G8" t="n">
-        <v>2.03</v>
+        <v>1.84</v>
       </c>
       <c r="H8" t="n">
-        <v>1.59</v>
+        <v>1.28</v>
       </c>
       <c r="I8" t="n">
-        <v>2.16</v>
+        <v>2.43</v>
       </c>
       <c r="J8" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O8" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U8" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="V8" t="n">
+        <v>24.22</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +1051,58 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="H9" t="n">
         <v>3.59</v>
       </c>
-      <c r="F9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.95</v>
-      </c>
       <c r="I9" t="n">
-        <v>4.08</v>
+        <v>3.23</v>
       </c>
       <c r="J9" t="n">
-        <v>3.07</v>
+        <v>4.07</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O9" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="P9" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.460000000000001</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U9" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="V9" t="n">
+        <v>9.890000000000001</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +1121,58 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>4.62</v>
+        <v>1.04</v>
       </c>
       <c r="F10" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="G10" t="n">
-        <v>5.82</v>
+        <v>5.36</v>
       </c>
       <c r="H10" t="n">
-        <v>3.11</v>
+        <v>2.5</v>
       </c>
       <c r="I10" t="n">
-        <v>5.86</v>
+        <v>5.67</v>
       </c>
       <c r="J10" t="n">
-        <v>2.39</v>
+        <v>1.78</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="R10" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="S10" t="n">
+        <v>7.64</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="V10" t="n">
+        <v>11.52</v>
       </c>
     </row>
     <row r="11">
@@ -807,27 +1191,63 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>12.55</v>
+        <v>1.05</v>
       </c>
       <c r="F11" t="n">
-        <v>6.09</v>
+        <v>113.88</v>
       </c>
       <c r="G11" t="n">
-        <v>14.68</v>
+        <v>9.76</v>
       </c>
       <c r="H11" t="n">
-        <v>4.79</v>
+        <v>16.02</v>
       </c>
       <c r="I11" t="n">
-        <v>14.64</v>
+        <v>9.83</v>
       </c>
       <c r="J11" t="n">
-        <v>10.87</v>
+        <v>114.69</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L11" t="n">
+        <v>129.32</v>
+      </c>
+      <c r="M11" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10.58</v>
+      </c>
+      <c r="P11" t="n">
+        <v>89.81</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="R11" t="n">
+        <v>52.98</v>
+      </c>
+      <c r="S11" t="n">
+        <v>11.19</v>
+      </c>
+      <c r="T11" t="n">
+        <v>17.27</v>
+      </c>
+      <c r="U11" t="n">
+        <v>14.57</v>
+      </c>
+      <c r="V11" t="n">
+        <v>75.04000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.06</v>
+        <v>3.95</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -841,22 +1261,58 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>15.58</v>
+        <v>3.08</v>
       </c>
       <c r="F12" t="n">
-        <v>15.38</v>
+        <v>3.28</v>
       </c>
       <c r="G12" t="n">
-        <v>15.36</v>
+        <v>3.37</v>
       </c>
       <c r="H12" t="n">
-        <v>15.35</v>
+        <v>3.27</v>
       </c>
       <c r="I12" t="n">
-        <v>16.42</v>
+        <v>3.41</v>
       </c>
       <c r="J12" t="n">
-        <v>15.38</v>
+        <v>3.36</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U12" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="V12" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="13">
@@ -875,27 +1331,63 @@
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>15.53</v>
+        <v>1.51</v>
       </c>
       <c r="F13" t="n">
-        <v>15.12</v>
+        <v>1.34</v>
       </c>
       <c r="G13" t="n">
-        <v>15.27</v>
+        <v>1.64</v>
       </c>
       <c r="H13" t="n">
-        <v>15.26</v>
+        <v>1.37</v>
       </c>
       <c r="I13" t="n">
-        <v>16.34</v>
+        <v>1.77</v>
       </c>
       <c r="J13" t="n">
-        <v>6.18</v>
+        <v>1.33</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V13" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.55</v>
+        <v>4.73</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -909,27 +1401,63 @@
         <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>17.38</v>
+        <v>3.17</v>
       </c>
       <c r="F14" t="n">
-        <v>6.11</v>
+        <v>3.14</v>
       </c>
       <c r="G14" t="n">
-        <v>17.2</v>
+        <v>3.49</v>
       </c>
       <c r="H14" t="n">
-        <v>17.18</v>
+        <v>3.17</v>
       </c>
       <c r="I14" t="n">
-        <v>18.24</v>
+        <v>3.57</v>
       </c>
       <c r="J14" t="n">
-        <v>6.45</v>
+        <v>3.36</v>
+      </c>
+      <c r="K14" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="L14" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="N14" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O14" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="T14" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U14" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="V14" t="n">
+        <v>3.35</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15.37</v>
+        <v>16.05</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -943,22 +1471,58 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>33.87</v>
+        <v>12.24</v>
       </c>
       <c r="F15" t="n">
-        <v>9.470000000000001</v>
+        <v>17.17</v>
       </c>
       <c r="G15" t="n">
-        <v>34.19</v>
+        <v>13.77</v>
       </c>
       <c r="H15" t="n">
-        <v>34.16</v>
+        <v>16.78</v>
       </c>
       <c r="I15" t="n">
-        <v>34.86</v>
+        <v>13.82</v>
       </c>
       <c r="J15" t="n">
-        <v>11.94</v>
+        <v>15.06</v>
+      </c>
+      <c r="K15" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="L15" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="M15" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="N15" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="O15" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="P15" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>12.24</v>
+      </c>
+      <c r="R15" t="n">
+        <v>16.62</v>
+      </c>
+      <c r="S15" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="T15" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="U15" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="V15" t="n">
+        <v>12.67</v>
       </c>
     </row>
     <row r="16">
@@ -977,27 +1541,63 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>18.75</v>
+        <v>4.65</v>
       </c>
       <c r="F16" t="n">
-        <v>13.32</v>
+        <v>4.3</v>
       </c>
       <c r="G16" t="n">
-        <v>18.85</v>
+        <v>5.57</v>
       </c>
       <c r="H16" t="n">
-        <v>18.68</v>
+        <v>4.25</v>
       </c>
       <c r="I16" t="n">
-        <v>19.74</v>
+        <v>5.62</v>
       </c>
       <c r="J16" t="n">
-        <v>13.23</v>
+        <v>3.96</v>
+      </c>
+      <c r="K16" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="L16" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="N16" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O16" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U16" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="V16" t="n">
+        <v>3.99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19.26</v>
+        <v>19.14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1011,27 +1611,63 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>37.63</v>
+        <v>12.9</v>
       </c>
       <c r="F17" t="n">
-        <v>37.85</v>
+        <v>12.84</v>
       </c>
       <c r="G17" t="n">
-        <v>38.18</v>
+        <v>14.59</v>
       </c>
       <c r="H17" t="n">
-        <v>38.11</v>
+        <v>14.76</v>
       </c>
       <c r="I17" t="n">
-        <v>38.69</v>
+        <v>14.6</v>
       </c>
       <c r="J17" t="n">
-        <v>17.22</v>
+        <v>20.07</v>
+      </c>
+      <c r="K17" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="M17" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="N17" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="O17" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="P17" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>12.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>12.84</v>
+      </c>
+      <c r="S17" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="T17" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="U17" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="V17" t="n">
+        <v>20.02</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>45.63</v>
+        <v>3.24</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1045,27 +1681,63 @@
         <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>68.79000000000001</v>
+        <v>1.73</v>
       </c>
       <c r="F18" t="n">
-        <v>38.66</v>
+        <v>1.53</v>
       </c>
       <c r="G18" t="n">
-        <v>71.69</v>
+        <v>2.03</v>
       </c>
       <c r="H18" t="n">
-        <v>69.55</v>
+        <v>1.58</v>
       </c>
       <c r="I18" t="n">
-        <v>71.84</v>
+        <v>2.16</v>
       </c>
       <c r="J18" t="n">
-        <v>38.8</v>
+        <v>1.47</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R18" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S18" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T18" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>43.22</v>
+        <v>5.36</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1079,27 +1751,63 @@
         <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>71.2</v>
+        <v>3.59</v>
       </c>
       <c r="F19" t="n">
-        <v>46</v>
+        <v>3.65</v>
       </c>
       <c r="G19" t="n">
-        <v>73.3</v>
+        <v>4.03</v>
       </c>
       <c r="H19" t="n">
-        <v>72.23</v>
+        <v>3.66</v>
       </c>
       <c r="I19" t="n">
-        <v>73.90000000000001</v>
+        <v>4.08</v>
       </c>
       <c r="J19" t="n">
-        <v>46.08</v>
+        <v>3.68</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O19" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="T19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U19" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="V19" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>81</v>
+        <v>10.53</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1113,27 +1821,63 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>101.52</v>
+        <v>4.62</v>
       </c>
       <c r="F20" t="n">
-        <v>63</v>
+        <v>3.41</v>
       </c>
       <c r="G20" t="n">
-        <v>108.49</v>
+        <v>5.82</v>
       </c>
       <c r="H20" t="n">
-        <v>62.82</v>
+        <v>2.35</v>
       </c>
       <c r="I20" t="n">
-        <v>108.6</v>
+        <v>5.86</v>
       </c>
       <c r="J20" t="n">
-        <v>103.51</v>
+        <v>2.52</v>
+      </c>
+      <c r="K20" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="N20" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="O20" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U20" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>85.86</v>
+        <v>19.45</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1147,22 +1891,58 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>110.16</v>
+        <v>12.55</v>
       </c>
       <c r="F21" t="n">
-        <v>46.32</v>
+        <v>15.76</v>
       </c>
       <c r="G21" t="n">
-        <v>117.65</v>
+        <v>14.68</v>
       </c>
       <c r="H21" t="n">
-        <v>116.48</v>
+        <v>15.13</v>
       </c>
       <c r="I21" t="n">
-        <v>118.23</v>
+        <v>14.64</v>
       </c>
       <c r="J21" t="n">
-        <v>114.54</v>
+        <v>16.05</v>
+      </c>
+      <c r="K21" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="L21" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="M21" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="O21" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="P21" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="R21" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="S21" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="T21" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="U21" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="V21" t="n">
+        <v>15.56</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excels/Synthetic/Resumes/Errors 1.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Errors 1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,92 +456,32 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_depth_1mm-InRays Initial (mm)</t>
+          <t>ARAP_not_scaled_depth-InRays Initial (mm)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_depth_1mm-InRays Final (mm)</t>
+          <t>ARAP_not_scaled_depth-InRays Final (mm)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_depth_1mm-TwoPoints Initial (mm)</t>
+          <t>ARAP_not_scaled_depth-TwoPoints Initial (mm)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_depth_1mm-TwoPoints Final (mm)</t>
+          <t>ARAP_not_scaled_depth-TwoPoints Final (mm)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_depth_1mm-FarPoints Initial (mm)</t>
+          <t>ARAP_not_scaled_depth-FarPoints Initial (mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_depth_1mm-FarPoints Final (mm)</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_3mm-InRays Initial (mm)</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_3mm-InRays Final (mm)</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_3mm-TwoPoints Initial (mm)</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_3mm-TwoPoints Final (mm)</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_3mm-FarPoints Initial (mm)</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_3mm-FarPoints Final (mm)</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_8mm-InRays Initial (mm)</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_8mm-InRays Final (mm)</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_8mm-TwoPoints Initial (mm)</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_8mm-TwoPoints Final (mm)</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_8mm-FarPoints Initial (mm)</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>ARAP_depth_8mm-FarPoints Final (mm)</t>
+          <t>ARAP_not_scaled_depth-FarPoints Final (mm)</t>
         </is>
       </c>
     </row>
@@ -561,58 +501,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.07</v>
+        <v>3.08</v>
       </c>
       <c r="F2" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="H2" t="n">
         <v>3.27</v>
       </c>
-      <c r="G2" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="H2" t="n">
-        <v>3.17</v>
-      </c>
       <c r="I2" t="n">
-        <v>2.61</v>
+        <v>3.41</v>
       </c>
       <c r="J2" t="n">
-        <v>3.99</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.81</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.19</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.54</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>6.47</v>
-      </c>
-      <c r="R2" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5.65</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="U2" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="V2" t="n">
-        <v>3.68</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="3">
@@ -631,58 +535,22 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.07</v>
+        <v>1.51</v>
       </c>
       <c r="F3" t="n">
-        <v>0.82</v>
+        <v>1.34</v>
       </c>
       <c r="G3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.42</v>
       </c>
-      <c r="H3" t="n">
-        <v>1.02</v>
-      </c>
       <c r="I3" t="n">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="J3" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2.31</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="U3" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="V3" t="n">
-        <v>14.08</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="4">
@@ -701,58 +569,22 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>1.08</v>
+        <v>3.17</v>
       </c>
       <c r="F4" t="n">
-        <v>3.01</v>
+        <v>3.18</v>
       </c>
       <c r="G4" t="n">
-        <v>2.51</v>
+        <v>3.49</v>
       </c>
       <c r="H4" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="I4" t="n">
-        <v>3.03</v>
+        <v>3.57</v>
       </c>
       <c r="J4" t="n">
-        <v>5.18</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.71</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O4" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="P4" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>6.99</v>
-      </c>
-      <c r="R4" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="S4" t="n">
-        <v>6.13</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U4" t="n">
-        <v>11.71</v>
-      </c>
-      <c r="V4" t="n">
-        <v>26.76</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="5">
@@ -771,58 +603,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.07</v>
+        <v>12.24</v>
       </c>
       <c r="F5" t="n">
-        <v>18.76</v>
+        <v>8.82</v>
       </c>
       <c r="G5" t="n">
-        <v>8.06</v>
+        <v>13.77</v>
       </c>
       <c r="H5" t="n">
-        <v>17.82</v>
+        <v>13</v>
       </c>
       <c r="I5" t="n">
-        <v>8.23</v>
+        <v>13.82</v>
       </c>
       <c r="J5" t="n">
-        <v>140.17</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L5" t="n">
-        <v>20</v>
-      </c>
-      <c r="M5" t="n">
-        <v>8.279999999999999</v>
-      </c>
-      <c r="N5" t="n">
-        <v>19.16</v>
-      </c>
-      <c r="O5" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="P5" t="n">
-        <v>36.97</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="R5" t="n">
-        <v>100.15</v>
-      </c>
-      <c r="S5" t="n">
-        <v>9.68</v>
-      </c>
-      <c r="T5" t="n">
-        <v>15.66</v>
-      </c>
-      <c r="U5" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="V5" t="n">
-        <v>155.73</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="6">
@@ -841,58 +637,22 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>1.05</v>
+        <v>4.65</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8100000000000001</v>
+        <v>4.24</v>
       </c>
       <c r="G6" t="n">
-        <v>5.04</v>
+        <v>5.57</v>
       </c>
       <c r="H6" t="n">
-        <v>0.99</v>
+        <v>4.39</v>
       </c>
       <c r="I6" t="n">
-        <v>5.27</v>
+        <v>5.62</v>
       </c>
       <c r="J6" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="O6" t="n">
-        <v>6.44</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3.29</v>
-      </c>
-      <c r="S6" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U6" t="n">
-        <v>11.59</v>
-      </c>
-      <c r="V6" t="n">
-        <v>10.66</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -911,58 +671,22 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>1.05</v>
+        <v>12.9</v>
       </c>
       <c r="F7" t="n">
-        <v>59.53</v>
+        <v>10.12</v>
       </c>
       <c r="G7" t="n">
-        <v>9.6</v>
+        <v>14.59</v>
       </c>
       <c r="H7" t="n">
-        <v>16.36</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="I7" t="n">
-        <v>9.68</v>
+        <v>14.6</v>
       </c>
       <c r="J7" t="n">
-        <v>110.62</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="L7" t="n">
-        <v>122.97</v>
-      </c>
-      <c r="M7" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15.47</v>
-      </c>
-      <c r="O7" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="P7" t="n">
-        <v>88.69</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>98.78</v>
-      </c>
-      <c r="S7" t="n">
-        <v>10.89</v>
-      </c>
-      <c r="T7" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="U7" t="n">
-        <v>14.56</v>
-      </c>
-      <c r="V7" t="n">
-        <v>108.85</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="8">
@@ -981,58 +705,22 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1.07</v>
+        <v>1.73</v>
       </c>
       <c r="F8" t="n">
-        <v>1.34</v>
+        <v>1.61</v>
       </c>
       <c r="G8" t="n">
-        <v>1.84</v>
+        <v>2.03</v>
       </c>
       <c r="H8" t="n">
-        <v>1.28</v>
+        <v>1.59</v>
       </c>
       <c r="I8" t="n">
-        <v>2.43</v>
+        <v>2.16</v>
       </c>
       <c r="J8" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="M8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="O8" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="R8" t="n">
-        <v>5.28</v>
-      </c>
-      <c r="S8" t="n">
-        <v>5.49</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U8" t="n">
-        <v>10.54</v>
-      </c>
-      <c r="V8" t="n">
-        <v>24.22</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="9">
@@ -1051,58 +739,22 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>1.06</v>
+        <v>3.59</v>
       </c>
       <c r="F9" t="n">
-        <v>4.02</v>
+        <v>2.34</v>
       </c>
       <c r="G9" t="n">
-        <v>2.79</v>
+        <v>4.03</v>
       </c>
       <c r="H9" t="n">
-        <v>3.59</v>
+        <v>2.95</v>
       </c>
       <c r="I9" t="n">
-        <v>3.23</v>
+        <v>4.08</v>
       </c>
       <c r="J9" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K9" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5.14</v>
-      </c>
-      <c r="P9" t="n">
-        <v>11.12</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="R9" t="n">
-        <v>8.460000000000001</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5.94</v>
-      </c>
-      <c r="T9" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="U9" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="V9" t="n">
-        <v>9.890000000000001</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="10">
@@ -1121,58 +773,22 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>1.04</v>
+        <v>4.62</v>
       </c>
       <c r="F10" t="n">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="G10" t="n">
-        <v>5.36</v>
+        <v>5.82</v>
       </c>
       <c r="H10" t="n">
-        <v>2.5</v>
+        <v>3.11</v>
       </c>
       <c r="I10" t="n">
-        <v>5.67</v>
+        <v>5.86</v>
       </c>
       <c r="J10" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.53</v>
-      </c>
-      <c r="L10" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5.76</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="O10" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>6.49</v>
-      </c>
-      <c r="R10" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="S10" t="n">
-        <v>7.64</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="V10" t="n">
-        <v>11.52</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="11">
@@ -1191,63 +807,27 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>1.05</v>
+        <v>12.55</v>
       </c>
       <c r="F11" t="n">
-        <v>113.88</v>
+        <v>6.09</v>
       </c>
       <c r="G11" t="n">
-        <v>9.76</v>
+        <v>14.68</v>
       </c>
       <c r="H11" t="n">
-        <v>16.02</v>
+        <v>4.79</v>
       </c>
       <c r="I11" t="n">
-        <v>9.83</v>
+        <v>14.64</v>
       </c>
       <c r="J11" t="n">
-        <v>114.69</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="L11" t="n">
-        <v>129.32</v>
-      </c>
-      <c r="M11" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="N11" t="n">
-        <v>16.75</v>
-      </c>
-      <c r="O11" t="n">
-        <v>10.58</v>
-      </c>
-      <c r="P11" t="n">
-        <v>89.81</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="R11" t="n">
-        <v>52.98</v>
-      </c>
-      <c r="S11" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="T11" t="n">
-        <v>17.27</v>
-      </c>
-      <c r="U11" t="n">
-        <v>14.57</v>
-      </c>
-      <c r="V11" t="n">
-        <v>75.04000000000001</v>
+        <v>10.87</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.95</v>
+        <v>4.06</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1261,58 +841,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>3.08</v>
+        <v>15.58</v>
       </c>
       <c r="F12" t="n">
-        <v>3.28</v>
+        <v>15.38</v>
       </c>
       <c r="G12" t="n">
-        <v>3.37</v>
+        <v>15.36</v>
       </c>
       <c r="H12" t="n">
-        <v>3.27</v>
+        <v>15.35</v>
       </c>
       <c r="I12" t="n">
-        <v>3.41</v>
+        <v>16.42</v>
       </c>
       <c r="J12" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="L12" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="M12" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="O12" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3.28</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="U12" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="V12" t="n">
-        <v>3.36</v>
+        <v>15.38</v>
       </c>
     </row>
     <row r="13">
@@ -1331,63 +875,27 @@
         <v>2.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1.51</v>
+        <v>15.53</v>
       </c>
       <c r="F13" t="n">
-        <v>1.34</v>
+        <v>15.12</v>
       </c>
       <c r="G13" t="n">
-        <v>1.64</v>
+        <v>15.27</v>
       </c>
       <c r="H13" t="n">
-        <v>1.37</v>
+        <v>15.26</v>
       </c>
       <c r="I13" t="n">
-        <v>1.77</v>
+        <v>16.34</v>
       </c>
       <c r="J13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="N13" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="P13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="T13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.32</v>
+        <v>6.18</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4.73</v>
+        <v>4.55</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1401,63 +909,27 @@
         <v>2.5</v>
       </c>
       <c r="E14" t="n">
-        <v>3.17</v>
+        <v>17.38</v>
       </c>
       <c r="F14" t="n">
-        <v>3.14</v>
+        <v>6.11</v>
       </c>
       <c r="G14" t="n">
-        <v>3.49</v>
+        <v>17.2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.17</v>
+        <v>17.18</v>
       </c>
       <c r="I14" t="n">
-        <v>3.57</v>
+        <v>18.24</v>
       </c>
       <c r="J14" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="M14" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="N14" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="O14" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3.37</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="R14" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3.49</v>
-      </c>
-      <c r="T14" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="U14" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="V14" t="n">
-        <v>3.35</v>
+        <v>6.45</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16.05</v>
+        <v>15.37</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1471,58 +943,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>12.24</v>
+        <v>33.87</v>
       </c>
       <c r="F15" t="n">
-        <v>17.17</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="G15" t="n">
-        <v>13.77</v>
+        <v>34.19</v>
       </c>
       <c r="H15" t="n">
-        <v>16.78</v>
+        <v>34.16</v>
       </c>
       <c r="I15" t="n">
-        <v>13.82</v>
+        <v>34.86</v>
       </c>
       <c r="J15" t="n">
-        <v>15.06</v>
-      </c>
-      <c r="K15" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="L15" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="M15" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="N15" t="n">
-        <v>17.83</v>
-      </c>
-      <c r="O15" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="P15" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="R15" t="n">
-        <v>16.62</v>
-      </c>
-      <c r="S15" t="n">
-        <v>13.77</v>
-      </c>
-      <c r="T15" t="n">
-        <v>16.21</v>
-      </c>
-      <c r="U15" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="V15" t="n">
-        <v>12.67</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="16">
@@ -1541,63 +977,27 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>4.65</v>
+        <v>18.75</v>
       </c>
       <c r="F16" t="n">
-        <v>4.3</v>
+        <v>13.32</v>
       </c>
       <c r="G16" t="n">
-        <v>5.57</v>
+        <v>18.85</v>
       </c>
       <c r="H16" t="n">
-        <v>4.25</v>
+        <v>18.68</v>
       </c>
       <c r="I16" t="n">
-        <v>5.62</v>
+        <v>19.74</v>
       </c>
       <c r="J16" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="K16" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.29</v>
-      </c>
-      <c r="M16" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="N16" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="O16" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="P16" t="n">
-        <v>4.02</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="R16" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5.57</v>
-      </c>
-      <c r="T16" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="U16" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="V16" t="n">
-        <v>3.99</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>19.14</v>
+        <v>19.26</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1611,63 +1011,27 @@
         <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>12.9</v>
+        <v>37.63</v>
       </c>
       <c r="F17" t="n">
-        <v>12.84</v>
+        <v>37.85</v>
       </c>
       <c r="G17" t="n">
-        <v>14.59</v>
+        <v>38.18</v>
       </c>
       <c r="H17" t="n">
-        <v>14.76</v>
+        <v>38.11</v>
       </c>
       <c r="I17" t="n">
-        <v>14.6</v>
+        <v>38.69</v>
       </c>
       <c r="J17" t="n">
-        <v>20.07</v>
-      </c>
-      <c r="K17" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="M17" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="N17" t="n">
-        <v>14.12</v>
-      </c>
-      <c r="O17" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="P17" t="n">
-        <v>20.09</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>12.84</v>
-      </c>
-      <c r="S17" t="n">
-        <v>14.59</v>
-      </c>
-      <c r="T17" t="n">
-        <v>14.21</v>
-      </c>
-      <c r="U17" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="V17" t="n">
-        <v>20.02</v>
+        <v>17.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3.24</v>
+        <v>45.63</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1681,63 +1045,27 @@
         <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>1.73</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>1.53</v>
+        <v>38.66</v>
       </c>
       <c r="G18" t="n">
-        <v>2.03</v>
+        <v>71.69</v>
       </c>
       <c r="H18" t="n">
-        <v>1.58</v>
+        <v>69.55</v>
       </c>
       <c r="I18" t="n">
-        <v>2.16</v>
+        <v>71.84</v>
       </c>
       <c r="J18" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="L18" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M18" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="N18" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="O18" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="P18" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S18" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="T18" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="U18" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.54</v>
+        <v>38.8</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>5.36</v>
+        <v>43.22</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1751,63 +1079,27 @@
         <v>2.5</v>
       </c>
       <c r="E19" t="n">
-        <v>3.59</v>
+        <v>71.2</v>
       </c>
       <c r="F19" t="n">
-        <v>3.65</v>
+        <v>46</v>
       </c>
       <c r="G19" t="n">
-        <v>4.03</v>
+        <v>73.3</v>
       </c>
       <c r="H19" t="n">
-        <v>3.66</v>
+        <v>72.23</v>
       </c>
       <c r="I19" t="n">
-        <v>4.08</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="J19" t="n">
-        <v>3.68</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="L19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M19" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="N19" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>3.59</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="S19" t="n">
-        <v>4.03</v>
-      </c>
-      <c r="T19" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="U19" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="V19" t="n">
-        <v>3.67</v>
+        <v>46.08</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>10.53</v>
+        <v>81</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
@@ -1821,63 +1113,27 @@
         <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>4.62</v>
+        <v>101.52</v>
       </c>
       <c r="F20" t="n">
-        <v>3.41</v>
+        <v>63</v>
       </c>
       <c r="G20" t="n">
-        <v>5.82</v>
+        <v>108.49</v>
       </c>
       <c r="H20" t="n">
-        <v>2.35</v>
+        <v>62.82</v>
       </c>
       <c r="I20" t="n">
-        <v>5.86</v>
+        <v>108.6</v>
       </c>
       <c r="J20" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="K20" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="M20" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="N20" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="O20" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="R20" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="U20" t="n">
-        <v>5.86</v>
-      </c>
-      <c r="V20" t="n">
-        <v>2.48</v>
+        <v>103.51</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>19.45</v>
+        <v>85.86</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
@@ -1891,58 +1147,22 @@
         <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>12.55</v>
+        <v>110.16</v>
       </c>
       <c r="F21" t="n">
-        <v>15.76</v>
+        <v>46.32</v>
       </c>
       <c r="G21" t="n">
-        <v>14.68</v>
+        <v>117.65</v>
       </c>
       <c r="H21" t="n">
-        <v>15.13</v>
+        <v>116.48</v>
       </c>
       <c r="I21" t="n">
-        <v>14.64</v>
+        <v>118.23</v>
       </c>
       <c r="J21" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="K21" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="L21" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="M21" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="N21" t="n">
-        <v>15.51</v>
-      </c>
-      <c r="O21" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="P21" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="R21" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="S21" t="n">
-        <v>14.68</v>
-      </c>
-      <c r="T21" t="n">
-        <v>15.76</v>
-      </c>
-      <c r="U21" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="V21" t="n">
-        <v>15.56</v>
+        <v>114.54</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Excels/Synthetic/Resumes/Errors 1.xlsx
+++ b/Data/Excels/Synthetic/Resumes/Errors 1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,32 +456,92 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-InRays Initial (mm)</t>
+          <t>ARAP_depth_1mm-InRays Initial (mm)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-InRays Final (mm)</t>
+          <t>ARAP_depth_1mm-InRays Final (mm)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-TwoPoints Initial (mm)</t>
+          <t>ARAP_depth_1mm-TwoPoints Initial (mm)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-TwoPoints Final (mm)</t>
+          <t>ARAP_depth_1mm-TwoPoints Final (mm)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-FarPoints Initial (mm)</t>
+          <t>ARAP_depth_1mm-FarPoints Initial (mm)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ARAP_not_scaled_depth-FarPoints Final (mm)</t>
+          <t>ARAP_depth_1mm-FarPoints Final (mm)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-InRays Initial (mm)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-InRays Final (mm)</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-TwoPoints Initial (mm)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-TwoPoints Final (mm)</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-FarPoints Initial (mm)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_3mm-FarPoints Final (mm)</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-InRays Initial (mm)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-InRays Final (mm)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-TwoPoints Initial (mm)</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-TwoPoints Final (mm)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-FarPoints Initial (mm)</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>ARAP_depth_8mm-FarPoints Final (mm)</t>
         </is>
       </c>
     </row>
@@ -501,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.08</v>
+        <v>1.07</v>
       </c>
       <c r="F2" t="n">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="G2" t="n">
         <v>3.37</v>
@@ -516,7 +576,43 @@
         <v>3.41</v>
       </c>
       <c r="J2" t="n">
-        <v>3.3</v>
+        <v>3.36</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L2" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="N2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O2" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>6.47</v>
+      </c>
+      <c r="R2" t="n">
+        <v>10.64</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U2" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="V2" t="n">
+        <v>3.36</v>
       </c>
     </row>
     <row r="3">
@@ -535,22 +631,58 @@
         <v>2.5</v>
       </c>
       <c r="E3" t="n">
-        <v>1.51</v>
+        <v>1.07</v>
       </c>
       <c r="F3" t="n">
-        <v>1.34</v>
+        <v>0.78</v>
       </c>
       <c r="G3" t="n">
         <v>1.64</v>
       </c>
       <c r="H3" t="n">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="I3" t="n">
         <v>1.77</v>
       </c>
       <c r="J3" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="N3" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="4">
@@ -569,22 +701,58 @@
         <v>2.5</v>
       </c>
       <c r="E4" t="n">
-        <v>3.17</v>
+        <v>1.08</v>
       </c>
       <c r="F4" t="n">
-        <v>3.18</v>
+        <v>3.01</v>
       </c>
       <c r="G4" t="n">
         <v>3.49</v>
       </c>
       <c r="H4" t="n">
-        <v>3.21</v>
+        <v>3.17</v>
       </c>
       <c r="I4" t="n">
         <v>3.57</v>
       </c>
       <c r="J4" t="n">
-        <v>3.15</v>
+        <v>3.36</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="L4" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>6.99</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="T4" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="U4" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.35</v>
       </c>
     </row>
     <row r="5">
@@ -603,22 +771,58 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>12.24</v>
+        <v>1.07</v>
       </c>
       <c r="F5" t="n">
-        <v>8.82</v>
+        <v>18.21</v>
       </c>
       <c r="G5" t="n">
         <v>13.77</v>
       </c>
       <c r="H5" t="n">
-        <v>13</v>
+        <v>16.78</v>
       </c>
       <c r="I5" t="n">
         <v>13.82</v>
       </c>
       <c r="J5" t="n">
-        <v>9.6</v>
+        <v>15.06</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L5" t="n">
+        <v>16.41</v>
+      </c>
+      <c r="M5" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="N5" t="n">
+        <v>17.83</v>
+      </c>
+      <c r="O5" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="R5" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="S5" t="n">
+        <v>13.77</v>
+      </c>
+      <c r="T5" t="n">
+        <v>16.21</v>
+      </c>
+      <c r="U5" t="n">
+        <v>13.82</v>
+      </c>
+      <c r="V5" t="n">
+        <v>12.67</v>
       </c>
     </row>
     <row r="6">
@@ -637,22 +841,58 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>4.65</v>
+        <v>1.05</v>
       </c>
       <c r="F6" t="n">
-        <v>4.24</v>
+        <v>0.75</v>
       </c>
       <c r="G6" t="n">
         <v>5.57</v>
       </c>
       <c r="H6" t="n">
-        <v>4.39</v>
+        <v>4.25</v>
       </c>
       <c r="I6" t="n">
         <v>5.62</v>
       </c>
       <c r="J6" t="n">
-        <v>3</v>
+        <v>3.96</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="T6" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.99</v>
       </c>
     </row>
     <row r="7">
@@ -671,22 +911,58 @@
         <v>10</v>
       </c>
       <c r="E7" t="n">
-        <v>12.9</v>
+        <v>1.05</v>
       </c>
       <c r="F7" t="n">
-        <v>10.12</v>
+        <v>33.64</v>
       </c>
       <c r="G7" t="n">
         <v>14.59</v>
       </c>
       <c r="H7" t="n">
-        <v>9.140000000000001</v>
+        <v>14.76</v>
       </c>
       <c r="I7" t="n">
         <v>14.6</v>
       </c>
       <c r="J7" t="n">
-        <v>12.7</v>
+        <v>20.07</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="L7" t="n">
+        <v>29.61</v>
+      </c>
+      <c r="M7" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="N7" t="n">
+        <v>14.12</v>
+      </c>
+      <c r="O7" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="P7" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>123.86</v>
+      </c>
+      <c r="S7" t="n">
+        <v>14.59</v>
+      </c>
+      <c r="T7" t="n">
+        <v>14.21</v>
+      </c>
+      <c r="U7" t="n">
+        <v>14.6</v>
+      </c>
+      <c r="V7" t="n">
+        <v>20.02</v>
       </c>
     </row>
     <row r="8">
@@ -705,22 +981,58 @@
         <v>2.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1.73</v>
+        <v>1.07</v>
       </c>
       <c r="F8" t="n">
-        <v>1.61</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
         <v>2.03</v>
       </c>
       <c r="H8" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="I8" t="n">
         <v>2.16</v>
       </c>
       <c r="J8" t="n">
-        <v>1.23</v>
+        <v>1.47</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="O8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="T8" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="U8" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V8" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +1051,58 @@
         <v>2.5</v>
       </c>
       <c r="E9" t="n">
-        <v>3.59</v>
+        <v>1.06</v>
       </c>
       <c r="F9" t="n">
-        <v>2.34</v>
+        <v>3.99</v>
       </c>
       <c r="G9" t="n">
         <v>4.03</v>
       </c>
       <c r="H9" t="n">
-        <v>2.95</v>
+        <v>3.66</v>
       </c>
       <c r="I9" t="n">
         <v>4.08</v>
       </c>
       <c r="J9" t="n">
-        <v>3.07</v>
+        <v>3.68</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="L9" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O9" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="R9" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="T9" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="U9" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="V9" t="n">
+        <v>3.67</v>
       </c>
     </row>
     <row r="10">
@@ -773,22 +1121,58 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>4.62</v>
+        <v>1.04</v>
       </c>
       <c r="F10" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="G10" t="n">
         <v>5.82</v>
       </c>
       <c r="H10" t="n">
-        <v>3.11</v>
+        <v>2.35</v>
       </c>
       <c r="I10" t="n">
         <v>5.86</v>
       </c>
       <c r="J10" t="n">
-        <v>2.39</v>
+        <v>2.52</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="N10" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="O10" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U10" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="V10" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="11">
@@ -807,362 +1191,58 @@
         <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>12.55</v>
+        <v>1.05</v>
       </c>
       <c r="F11" t="n">
-        <v>6.09</v>
+        <v>38.99</v>
       </c>
       <c r="G11" t="n">
         <v>14.68</v>
       </c>
       <c r="H11" t="n">
-        <v>4.79</v>
+        <v>15.13</v>
       </c>
       <c r="I11" t="n">
         <v>14.64</v>
       </c>
       <c r="J11" t="n">
-        <v>10.87</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Planar</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>15.58</v>
-      </c>
-      <c r="F12" t="n">
-        <v>15.38</v>
-      </c>
-      <c r="G12" t="n">
-        <v>15.36</v>
-      </c>
-      <c r="H12" t="n">
-        <v>15.35</v>
-      </c>
-      <c r="I12" t="n">
-        <v>16.42</v>
-      </c>
-      <c r="J12" t="n">
-        <v>15.38</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Planar</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E13" t="n">
-        <v>15.53</v>
-      </c>
-      <c r="F13" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="G13" t="n">
-        <v>15.27</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15.26</v>
-      </c>
-      <c r="I13" t="n">
-        <v>16.34</v>
-      </c>
-      <c r="J13" t="n">
-        <v>6.18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Planar</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>17.38</v>
-      </c>
-      <c r="F14" t="n">
-        <v>6.11</v>
-      </c>
-      <c r="G14" t="n">
-        <v>17.2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>17.18</v>
-      </c>
-      <c r="I14" t="n">
-        <v>18.24</v>
-      </c>
-      <c r="J14" t="n">
-        <v>6.45</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>15.37</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Planar</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>10</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>33.87</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="G15" t="n">
-        <v>34.19</v>
-      </c>
-      <c r="H15" t="n">
-        <v>34.16</v>
-      </c>
-      <c r="I15" t="n">
-        <v>34.86</v>
-      </c>
-      <c r="J15" t="n">
-        <v>11.94</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Planar</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>10</v>
-      </c>
-      <c r="E16" t="n">
-        <v>18.75</v>
-      </c>
-      <c r="F16" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="G16" t="n">
-        <v>18.85</v>
-      </c>
-      <c r="H16" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="I16" t="n">
-        <v>19.74</v>
-      </c>
-      <c r="J16" t="n">
-        <v>13.23</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Planar</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>10</v>
-      </c>
-      <c r="D17" t="n">
-        <v>10</v>
-      </c>
-      <c r="E17" t="n">
-        <v>37.63</v>
-      </c>
-      <c r="F17" t="n">
-        <v>37.85</v>
-      </c>
-      <c r="G17" t="n">
-        <v>38.18</v>
-      </c>
-      <c r="H17" t="n">
-        <v>38.11</v>
-      </c>
-      <c r="I17" t="n">
-        <v>38.69</v>
-      </c>
-      <c r="J17" t="n">
-        <v>17.22</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>45.63</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Gradual</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>68.79000000000001</v>
-      </c>
-      <c r="F18" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="G18" t="n">
-        <v>71.69</v>
-      </c>
-      <c r="H18" t="n">
-        <v>69.55</v>
-      </c>
-      <c r="I18" t="n">
-        <v>71.84</v>
-      </c>
-      <c r="J18" t="n">
-        <v>38.8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>43.22</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Gradual</t>
-        </is>
-      </c>
-      <c r="C19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="D19" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E19" t="n">
-        <v>71.2</v>
-      </c>
-      <c r="F19" t="n">
-        <v>46</v>
-      </c>
-      <c r="G19" t="n">
-        <v>73.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>72.23</v>
-      </c>
-      <c r="I19" t="n">
-        <v>73.90000000000001</v>
-      </c>
-      <c r="J19" t="n">
-        <v>46.08</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>81</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Gradual</t>
-        </is>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>10</v>
-      </c>
-      <c r="E20" t="n">
-        <v>101.52</v>
-      </c>
-      <c r="F20" t="n">
-        <v>63</v>
-      </c>
-      <c r="G20" t="n">
-        <v>108.49</v>
-      </c>
-      <c r="H20" t="n">
-        <v>62.82</v>
-      </c>
-      <c r="I20" t="n">
-        <v>108.6</v>
-      </c>
-      <c r="J20" t="n">
-        <v>103.51</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>85.86</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Gradual</t>
-        </is>
-      </c>
-      <c r="C21" t="n">
-        <v>10</v>
-      </c>
-      <c r="D21" t="n">
-        <v>10</v>
-      </c>
-      <c r="E21" t="n">
-        <v>110.16</v>
-      </c>
-      <c r="F21" t="n">
-        <v>46.32</v>
-      </c>
-      <c r="G21" t="n">
-        <v>117.65</v>
-      </c>
-      <c r="H21" t="n">
-        <v>116.48</v>
-      </c>
-      <c r="I21" t="n">
-        <v>118.23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>114.54</v>
+        <v>16.05</v>
+      </c>
+      <c r="K11" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="L11" t="n">
+        <v>75.73</v>
+      </c>
+      <c r="M11" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="N11" t="n">
+        <v>15.51</v>
+      </c>
+      <c r="O11" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="P11" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>6.56</v>
+      </c>
+      <c r="R11" t="n">
+        <v>100.38</v>
+      </c>
+      <c r="S11" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="T11" t="n">
+        <v>15.76</v>
+      </c>
+      <c r="U11" t="n">
+        <v>14.64</v>
+      </c>
+      <c r="V11" t="n">
+        <v>15.56</v>
       </c>
     </row>
   </sheetData>
